--- a/insitu/30mv/insitu-30mv-Layer0-Test4.xlsx
+++ b/insitu/30mv/insitu-30mv-Layer0-Test4.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/insitu/30mv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5385A4-7138-0F47-AEC4-ABDEC2CAD124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD189EF-2BC4-A14B-AEA9-2065ED39F759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -193,232 +193,505 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$G$7:$G$81</c:f>
+              <c:f>Sheet1!$G$4:$G$169</c:f>
               <c:strCache>
-                <c:ptCount val="75"/>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
+                  <c:v>0.43397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44397</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.44797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45597</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.46397</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.46597</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.47197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.47597</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47797</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.47997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.48197</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.48397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.48597</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.48797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.48997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.49197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.49397</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.49597</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.49797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.50197</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50597</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.50797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.50997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51197</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.51397</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.51597</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.51797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.51997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.52397</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.52597</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.52797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.52997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53197</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53397</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.53597</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.53797</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54197</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54397</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.54597</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.54797</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.54997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.55197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.55397</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.55597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.55797</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56397</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.56597</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.56797</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.56997</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>0.57197</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="70">
                   <c:v>0.57397</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="71">
                   <c:v>0.57597</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="72">
                   <c:v>0.57797</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="73">
                   <c:v>0.57997</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="74">
                   <c:v>0.58197</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="75">
                   <c:v>0.58397</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="76">
                   <c:v>0.58597</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="77">
                   <c:v>0.58797</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="78">
                   <c:v>0.58997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="79">
                   <c:v>0.59197</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="80">
                   <c:v>0.59397</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="81">
                   <c:v>0.59597</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="82">
                   <c:v>0.59797</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="83">
                   <c:v>0.59997</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="84">
                   <c:v>0.60197</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="85">
                   <c:v>0.60397</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="86">
                   <c:v>0.60597</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="87">
                   <c:v>0.60797</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="88">
                   <c:v>0.60997</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="89">
                   <c:v>0.61197</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="90">
                   <c:v>0.61397</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="91">
                   <c:v>0.61597</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="92">
                   <c:v>0.61797</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="93">
                   <c:v>0.61997</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="94">
                   <c:v>0.62197</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="95">
                   <c:v>0.62397</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="96">
                   <c:v>0.62597</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="97">
                   <c:v>0.62797</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="98">
                   <c:v>0.62997</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="99">
                   <c:v>0.63197</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="100">
                   <c:v>0.63397</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="101">
                   <c:v>0.63597</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="102">
                   <c:v>0.63797</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="103">
                   <c:v>0.63997</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="104">
                   <c:v>0.64197</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="105">
                   <c:v>0.64397</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="106">
                   <c:v>0.64597</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="107">
                   <c:v>0.64797</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="108">
                   <c:v>0.64997</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="109">
                   <c:v>0.65197</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="110">
                   <c:v>0.65397</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="111">
                   <c:v>0.65597</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="112">
                   <c:v>0.65797</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="113">
                   <c:v>0.65997</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="114">
                   <c:v>0.66197</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="115">
                   <c:v>0.66397</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="116">
                   <c:v>0.66597</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="117">
                   <c:v>0.66797</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="118">
                   <c:v>0.66997</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="119">
                   <c:v>0.67197</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="120">
                   <c:v>0.67397</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="121">
                   <c:v>0.67597</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="122">
                   <c:v>0.67797</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="123">
                   <c:v>0.67997</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="124">
                   <c:v>0.68197</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="125">
                   <c:v>0.68397</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="126">
                   <c:v>0.68597</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="127">
                   <c:v>0.68797</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="128">
                   <c:v>0.68997</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="129">
                   <c:v>0.69197</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="130">
                   <c:v>0.69397</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="131">
                   <c:v>0.69597</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="132">
                   <c:v>0.69797</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="133">
                   <c:v>0.69997</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="134">
                   <c:v>0.70197</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="135">
                   <c:v>0.70397</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="136">
                   <c:v>0.70597</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="137">
                   <c:v>0.70797</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="138">
                   <c:v>0.70997</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="139">
                   <c:v>0.71197</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="140">
                   <c:v>0.71397</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="141">
                   <c:v>0.71597</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="142">
                   <c:v>0.71797</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="143">
+                  <c:v>0.71997</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.72197</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.72397</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.72597</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.72797</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.72997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.73197</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.73397</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.73597</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.73797</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.73997</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.74197</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.74397</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.74597</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.74797</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.74997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.75197</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.75397</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.75597</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.75797</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.75997</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.76197</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>其他</c:v>
                 </c:pt>
               </c:strCache>
@@ -426,12 +699,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$81</c:f>
+              <c:f>Sheet1!$H$4:$H$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="166"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -446,58 +719,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -506,121 +779,121 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0</c:v>
@@ -653,6 +926,279 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -660,7 +1206,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AA9C-E645-A9F4-66BA98160293}"/>
+              <c16:uniqueId val="{00000001-B087-984F-BFC4-DD728BA3F236}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -673,11 +1219,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1274680144"/>
-        <c:axId val="1274494192"/>
+        <c:axId val="331893199"/>
+        <c:axId val="376457935"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1274680144"/>
+        <c:axId val="331893199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,7 +1251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1274494192"/>
+        <c:crossAx val="376457935"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -713,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1274494192"/>
+        <c:axId val="376457935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -741,7 +1287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1274680144"/>
+        <c:crossAx val="331893199"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -774,22 +1320,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>398060</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D057F9-6EF2-AA49-BAD7-E18C32BDE841}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0982B926-FE56-074C-8DE8-240F00F83FD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1097,31 +1643,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="1">
         <v>0.47677999999999998</v>
       </c>
       <c r="D2">
-        <v>0.57196999999999998</v>
-      </c>
+        <v>0.43397000000000002</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.45962999999999998</v>
       </c>
       <c r="D3">
-        <v>0.57396999999999998</v>
+        <v>0.43597000000000002</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1129,15 +1683,27 @@
         <v>0.49021999999999999</v>
       </c>
       <c r="D4">
-        <v>0.57596999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1">
+        <v>0.43797000000000003</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.43397000000000002</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0.47572999999999999</v>
       </c>
       <c r="D5">
-        <v>0.57796999999999998</v>
+        <v>0.43997000000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.43597000000000002</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1145,13 +1711,13 @@
         <v>0.48818</v>
       </c>
       <c r="D6">
-        <v>0.57996999999999999</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>3</v>
+        <v>0.44196999999999997</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.43797000000000003</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1159,13 +1725,13 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="D7">
-        <v>0.58196999999999999</v>
+        <v>0.44396999999999998</v>
       </c>
       <c r="G7" s="3">
-        <v>0.57196999999999998</v>
+        <v>0.43997000000000003</v>
       </c>
       <c r="H7" s="4">
-        <v>199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1173,10 +1739,10 @@
         <v>0.46828999999999998</v>
       </c>
       <c r="D8">
-        <v>0.58396999999999999</v>
+        <v>0.44596999999999998</v>
       </c>
       <c r="G8" s="3">
-        <v>0.57396999999999998</v>
+        <v>0.44196999999999997</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1187,10 +1753,10 @@
         <v>0.45301000000000002</v>
       </c>
       <c r="D9">
-        <v>0.58596999999999999</v>
+        <v>0.44796999999999998</v>
       </c>
       <c r="G9" s="3">
-        <v>0.57596999999999998</v>
+        <v>0.44396999999999998</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -1201,10 +1767,10 @@
         <v>0.46828999999999998</v>
       </c>
       <c r="D10">
-        <v>0.58796999999999999</v>
+        <v>0.44996999999999998</v>
       </c>
       <c r="G10" s="3">
-        <v>0.57796999999999998</v>
+        <v>0.44596999999999998</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1215,13 +1781,13 @@
         <v>0.50026000000000004</v>
       </c>
       <c r="D11">
-        <v>0.58996999999999999</v>
+        <v>0.45196999999999998</v>
       </c>
       <c r="G11" s="3">
-        <v>0.57996999999999999</v>
+        <v>0.44796999999999998</v>
       </c>
       <c r="H11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1229,13 +1795,13 @@
         <v>0.46936</v>
       </c>
       <c r="D12">
-        <v>0.59197</v>
+        <v>0.45396999999999998</v>
       </c>
       <c r="G12" s="3">
-        <v>0.58196999999999999</v>
+        <v>0.44996999999999998</v>
       </c>
       <c r="H12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1243,13 +1809,13 @@
         <v>0.45852999999999999</v>
       </c>
       <c r="D13">
-        <v>0.59397</v>
+        <v>0.45596999999999999</v>
       </c>
       <c r="G13" s="3">
-        <v>0.58396999999999999</v>
+        <v>0.45196999999999998</v>
       </c>
       <c r="H13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1257,13 +1823,13 @@
         <v>0.47255999999999998</v>
       </c>
       <c r="D14">
-        <v>0.59597</v>
+        <v>0.45796999999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>0.58596999999999999</v>
+        <v>0.45396999999999998</v>
       </c>
       <c r="H14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1271,13 +1837,13 @@
         <v>0.45190000000000002</v>
       </c>
       <c r="D15">
-        <v>0.59797</v>
+        <v>0.45996999999999999</v>
       </c>
       <c r="G15" s="3">
-        <v>0.58796999999999999</v>
+        <v>0.45596999999999999</v>
       </c>
       <c r="H15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1285,13 +1851,13 @@
         <v>0.44967000000000001</v>
       </c>
       <c r="D16">
-        <v>0.59997</v>
+        <v>0.46196999999999999</v>
       </c>
       <c r="G16" s="3">
-        <v>0.58996999999999999</v>
+        <v>0.45796999999999999</v>
       </c>
       <c r="H16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1299,13 +1865,13 @@
         <v>0.46072000000000002</v>
       </c>
       <c r="D17">
-        <v>0.60197000000000001</v>
+        <v>0.46396999999999999</v>
       </c>
       <c r="G17" s="3">
-        <v>0.59197</v>
+        <v>0.45996999999999999</v>
       </c>
       <c r="H17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1313,13 +1879,13 @@
         <v>0.48407</v>
       </c>
       <c r="D18">
-        <v>0.60397000000000001</v>
+        <v>0.46597</v>
       </c>
       <c r="G18" s="3">
-        <v>0.59397</v>
+        <v>0.46196999999999999</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1327,13 +1893,13 @@
         <v>0.49926999999999999</v>
       </c>
       <c r="D19">
-        <v>0.60597000000000001</v>
+        <v>0.46797</v>
       </c>
       <c r="G19" s="3">
-        <v>0.59597</v>
+        <v>0.46396999999999999</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1341,13 +1907,13 @@
         <v>0.50617000000000001</v>
       </c>
       <c r="D20">
-        <v>0.60797000000000001</v>
+        <v>0.46997</v>
       </c>
       <c r="G20" s="3">
-        <v>0.59797</v>
+        <v>0.46597</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1355,13 +1921,13 @@
         <v>0.48715000000000003</v>
       </c>
       <c r="D21">
-        <v>0.60997000000000001</v>
+        <v>0.47197</v>
       </c>
       <c r="G21" s="3">
-        <v>0.59997</v>
+        <v>0.46797</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1369,13 +1935,13 @@
         <v>0.49325999999999998</v>
       </c>
       <c r="D22">
-        <v>0.61197000000000001</v>
+        <v>0.47397</v>
       </c>
       <c r="G22" s="3">
-        <v>0.60197000000000001</v>
+        <v>0.46997</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1383,13 +1949,13 @@
         <v>0.49726999999999999</v>
       </c>
       <c r="D23">
-        <v>0.61397000000000002</v>
+        <v>0.47597</v>
       </c>
       <c r="G23" s="3">
-        <v>0.60397000000000001</v>
+        <v>0.47197</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1397,13 +1963,13 @@
         <v>0.49425999999999998</v>
       </c>
       <c r="D24">
-        <v>0.61597000000000002</v>
+        <v>0.47797000000000001</v>
       </c>
       <c r="G24" s="3">
-        <v>0.60597000000000001</v>
+        <v>0.47397</v>
       </c>
       <c r="H24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1411,13 +1977,13 @@
         <v>0.51104000000000005</v>
       </c>
       <c r="D25">
-        <v>0.61797000000000002</v>
+        <v>0.47997000000000001</v>
       </c>
       <c r="G25" s="3">
-        <v>0.60797000000000001</v>
+        <v>0.47597</v>
       </c>
       <c r="H25" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1425,13 +1991,13 @@
         <v>0.50026000000000004</v>
       </c>
       <c r="D26">
-        <v>0.61997000000000002</v>
+        <v>0.48197000000000001</v>
       </c>
       <c r="G26" s="3">
-        <v>0.60997000000000001</v>
+        <v>0.47797000000000001</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1439,10 +2005,10 @@
         <v>0.51007000000000002</v>
       </c>
       <c r="D27">
-        <v>0.62197000000000002</v>
+        <v>0.48397000000000001</v>
       </c>
       <c r="G27" s="3">
-        <v>0.61197000000000001</v>
+        <v>0.47997000000000001</v>
       </c>
       <c r="H27" s="4">
         <v>0</v>
@@ -1453,10 +2019,10 @@
         <v>0.50812000000000002</v>
       </c>
       <c r="D28">
-        <v>0.62397000000000002</v>
+        <v>0.48597000000000001</v>
       </c>
       <c r="G28" s="3">
-        <v>0.61397000000000002</v>
+        <v>0.48197000000000001</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -1467,13 +2033,13 @@
         <v>0.50026000000000004</v>
       </c>
       <c r="D29">
-        <v>0.62597000000000003</v>
+        <v>0.48797000000000001</v>
       </c>
       <c r="G29" s="3">
-        <v>0.61597000000000002</v>
+        <v>0.48397000000000001</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1481,13 +2047,13 @@
         <v>0.48509999999999998</v>
       </c>
       <c r="D30">
-        <v>0.62797000000000003</v>
+        <v>0.48997000000000002</v>
       </c>
       <c r="G30" s="3">
-        <v>0.61797000000000002</v>
+        <v>0.48597000000000001</v>
       </c>
       <c r="H30" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1495,13 +2061,13 @@
         <v>0.49726999999999999</v>
       </c>
       <c r="D31">
-        <v>0.62997000000000003</v>
+        <v>0.49197000000000002</v>
       </c>
       <c r="G31" s="3">
-        <v>0.61997000000000002</v>
+        <v>0.48797000000000001</v>
       </c>
       <c r="H31" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1509,13 +2075,13 @@
         <v>0.49926999999999999</v>
       </c>
       <c r="D32">
-        <v>0.63197000000000003</v>
+        <v>0.49397000000000002</v>
       </c>
       <c r="G32" s="3">
-        <v>0.62197000000000002</v>
+        <v>0.48997000000000002</v>
       </c>
       <c r="H32" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1523,13 +2089,13 @@
         <v>0.49626999999999999</v>
       </c>
       <c r="D33">
-        <v>0.63397000000000003</v>
+        <v>0.49597000000000002</v>
       </c>
       <c r="G33" s="3">
-        <v>0.62397000000000002</v>
+        <v>0.49197000000000002</v>
       </c>
       <c r="H33" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1537,13 +2103,13 @@
         <v>0.49224000000000001</v>
       </c>
       <c r="D34">
-        <v>0.63597000000000004</v>
+        <v>0.49797000000000002</v>
       </c>
       <c r="G34" s="3">
-        <v>0.62597000000000003</v>
+        <v>0.49397000000000002</v>
       </c>
       <c r="H34" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1551,13 +2117,13 @@
         <v>0.48920000000000002</v>
       </c>
       <c r="D35">
-        <v>0.63797000000000004</v>
+        <v>0.49997000000000003</v>
       </c>
       <c r="G35" s="3">
-        <v>0.62797000000000003</v>
+        <v>0.49597000000000002</v>
       </c>
       <c r="H35" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1565,13 +2131,13 @@
         <v>0.50714999999999999</v>
       </c>
       <c r="D36">
-        <v>0.63997000000000004</v>
+        <v>0.50197000000000003</v>
       </c>
       <c r="G36" s="3">
-        <v>0.62997000000000003</v>
+        <v>0.49797000000000002</v>
       </c>
       <c r="H36" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1579,13 +2145,13 @@
         <v>0.50421000000000005</v>
       </c>
       <c r="D37">
-        <v>0.64197000000000004</v>
+        <v>0.50397000000000003</v>
       </c>
       <c r="G37" s="3">
-        <v>0.63197000000000003</v>
+        <v>0.49997000000000003</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1593,13 +2159,13 @@
         <v>0.48818</v>
       </c>
       <c r="D38">
-        <v>0.64397000000000004</v>
+        <v>0.50597000000000003</v>
       </c>
       <c r="G38" s="3">
-        <v>0.63397000000000003</v>
+        <v>0.50197000000000003</v>
       </c>
       <c r="H38" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1607,13 +2173,13 @@
         <v>0.50909000000000004</v>
       </c>
       <c r="D39">
-        <v>0.64597000000000004</v>
+        <v>0.50797000000000003</v>
       </c>
       <c r="G39" s="3">
-        <v>0.63597000000000004</v>
+        <v>0.50397000000000003</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1621,13 +2187,13 @@
         <v>0.49826999999999999</v>
       </c>
       <c r="D40">
-        <v>0.64797000000000005</v>
+        <v>0.50997000000000003</v>
       </c>
       <c r="G40" s="3">
-        <v>0.63797000000000004</v>
+        <v>0.50597000000000003</v>
       </c>
       <c r="H40" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1635,13 +2201,13 @@
         <v>0.50519000000000003</v>
       </c>
       <c r="D41">
-        <v>0.64997000000000005</v>
+        <v>0.51197000000000004</v>
       </c>
       <c r="G41" s="3">
-        <v>0.63997000000000004</v>
+        <v>0.50797000000000003</v>
       </c>
       <c r="H41" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1649,13 +2215,13 @@
         <v>0.58152000000000004</v>
       </c>
       <c r="D42">
-        <v>0.65197000000000005</v>
+        <v>0.51397000000000004</v>
       </c>
       <c r="G42" s="3">
-        <v>0.64197000000000004</v>
+        <v>0.50997000000000003</v>
       </c>
       <c r="H42" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1663,13 +2229,13 @@
         <v>0.51780999999999999</v>
       </c>
       <c r="D43">
-        <v>0.65397000000000005</v>
+        <v>0.51597000000000004</v>
       </c>
       <c r="G43" s="3">
-        <v>0.64397000000000004</v>
+        <v>0.51197000000000004</v>
       </c>
       <c r="H43" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1677,13 +2243,13 @@
         <v>0.5474</v>
       </c>
       <c r="D44">
-        <v>0.65597000000000005</v>
+        <v>0.51797000000000004</v>
       </c>
       <c r="G44" s="3">
-        <v>0.64597000000000004</v>
+        <v>0.51397000000000004</v>
       </c>
       <c r="H44" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1691,13 +2257,13 @@
         <v>0.50714999999999999</v>
       </c>
       <c r="D45">
-        <v>0.65797000000000005</v>
+        <v>0.51997000000000004</v>
       </c>
       <c r="G45" s="3">
-        <v>0.64797000000000005</v>
+        <v>0.51597000000000004</v>
       </c>
       <c r="H45" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1705,13 +2271,13 @@
         <v>0.54651000000000005</v>
       </c>
       <c r="D46">
-        <v>0.65996999999999995</v>
+        <v>0.52197000000000005</v>
       </c>
       <c r="G46" s="3">
-        <v>0.64997000000000005</v>
+        <v>0.51797000000000004</v>
       </c>
       <c r="H46" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1719,13 +2285,13 @@
         <v>0.49926999999999999</v>
       </c>
       <c r="D47">
-        <v>0.66196999999999995</v>
+        <v>0.52397000000000005</v>
       </c>
       <c r="G47" s="3">
-        <v>0.65197000000000005</v>
+        <v>0.51997000000000004</v>
       </c>
       <c r="H47" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1733,13 +2299,13 @@
         <v>0.46936</v>
       </c>
       <c r="D48">
-        <v>0.66396999999999995</v>
+        <v>0.52597000000000005</v>
       </c>
       <c r="G48" s="3">
-        <v>0.65397000000000005</v>
+        <v>0.52197000000000005</v>
       </c>
       <c r="H48" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1747,13 +2313,13 @@
         <v>0.53380000000000005</v>
       </c>
       <c r="D49">
-        <v>0.66596999999999995</v>
+        <v>0.52797000000000005</v>
       </c>
       <c r="G49" s="3">
-        <v>0.65597000000000005</v>
+        <v>0.52397000000000005</v>
       </c>
       <c r="H49" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1761,13 +2327,13 @@
         <v>0.54471999999999998</v>
       </c>
       <c r="D50">
-        <v>0.66796999999999995</v>
+        <v>0.52997000000000005</v>
       </c>
       <c r="G50" s="3">
-        <v>0.65797000000000005</v>
+        <v>0.52597000000000005</v>
       </c>
       <c r="H50" s="4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1775,13 +2341,13 @@
         <v>0.51395999999999997</v>
       </c>
       <c r="D51">
-        <v>0.66996999999999995</v>
+        <v>0.53197000000000005</v>
       </c>
       <c r="G51" s="3">
-        <v>0.65996999999999995</v>
+        <v>0.52797000000000005</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1789,13 +2355,13 @@
         <v>0.49726999999999999</v>
       </c>
       <c r="D52">
-        <v>0.67196999999999996</v>
+        <v>0.53396999999999994</v>
       </c>
       <c r="G52" s="3">
-        <v>0.66196999999999995</v>
+        <v>0.52997000000000005</v>
       </c>
       <c r="H52" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1803,13 +2369,13 @@
         <v>0.51780999999999999</v>
       </c>
       <c r="D53">
-        <v>0.67396999999999996</v>
+        <v>0.53596999999999995</v>
       </c>
       <c r="G53" s="3">
-        <v>0.66396999999999995</v>
+        <v>0.53197000000000005</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1817,13 +2383,13 @@
         <v>0.52822999999999998</v>
       </c>
       <c r="D54">
-        <v>0.67596999999999996</v>
+        <v>0.53796999999999995</v>
       </c>
       <c r="G54" s="3">
-        <v>0.66596999999999995</v>
+        <v>0.53396999999999994</v>
       </c>
       <c r="H54" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1831,13 +2397,13 @@
         <v>0.51685000000000003</v>
       </c>
       <c r="D55">
-        <v>0.67796999999999996</v>
+        <v>0.53996999999999995</v>
       </c>
       <c r="G55" s="3">
-        <v>0.66796999999999995</v>
+        <v>0.53596999999999995</v>
       </c>
       <c r="H55" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1845,13 +2411,13 @@
         <v>0.53564000000000001</v>
       </c>
       <c r="D56">
-        <v>0.67996999999999996</v>
+        <v>0.54196999999999995</v>
       </c>
       <c r="G56" s="3">
-        <v>0.66996999999999995</v>
+        <v>0.53796999999999995</v>
       </c>
       <c r="H56" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1859,13 +2425,13 @@
         <v>0.52542</v>
       </c>
       <c r="D57">
-        <v>0.68196999999999997</v>
+        <v>0.54396999999999995</v>
       </c>
       <c r="G57" s="3">
-        <v>0.67196999999999996</v>
+        <v>0.53996999999999995</v>
       </c>
       <c r="H57" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1873,10 +2439,10 @@
         <v>0.52917000000000003</v>
       </c>
       <c r="D58">
-        <v>0.68396999999999997</v>
+        <v>0.54596999999999996</v>
       </c>
       <c r="G58" s="3">
-        <v>0.67396999999999996</v>
+        <v>0.54196999999999995</v>
       </c>
       <c r="H58" s="4">
         <v>0</v>
@@ -1887,13 +2453,13 @@
         <v>0.50519000000000003</v>
       </c>
       <c r="D59">
-        <v>0.68596999999999997</v>
+        <v>0.54796999999999996</v>
       </c>
       <c r="G59" s="3">
-        <v>0.67596999999999996</v>
+        <v>0.54396999999999995</v>
       </c>
       <c r="H59" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1901,13 +2467,13 @@
         <v>0.52542</v>
       </c>
       <c r="D60">
-        <v>0.68796999999999997</v>
+        <v>0.54996999999999996</v>
       </c>
       <c r="G60" s="3">
-        <v>0.67796999999999996</v>
+        <v>0.54596999999999996</v>
       </c>
       <c r="H60" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1915,13 +2481,13 @@
         <v>0.45743</v>
       </c>
       <c r="D61">
-        <v>0.68996999999999997</v>
+        <v>0.55196999999999996</v>
       </c>
       <c r="G61" s="3">
-        <v>0.67996999999999996</v>
+        <v>0.54796999999999996</v>
       </c>
       <c r="H61" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1929,13 +2495,13 @@
         <v>0.51492000000000004</v>
       </c>
       <c r="D62">
-        <v>0.69196999999999997</v>
+        <v>0.55396999999999996</v>
       </c>
       <c r="G62" s="3">
-        <v>0.68196999999999997</v>
+        <v>0.54996999999999996</v>
       </c>
       <c r="H62" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -1943,13 +2509,13 @@
         <v>0.50714999999999999</v>
       </c>
       <c r="D63">
-        <v>0.69396999999999998</v>
+        <v>0.55596999999999996</v>
       </c>
       <c r="G63" s="3">
-        <v>0.68396999999999997</v>
+        <v>0.55196999999999996</v>
       </c>
       <c r="H63" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -1957,13 +2523,13 @@
         <v>0.50714999999999999</v>
       </c>
       <c r="D64">
-        <v>0.69596999999999998</v>
+        <v>0.55796999999999997</v>
       </c>
       <c r="G64" s="3">
-        <v>0.68596999999999997</v>
+        <v>0.55396999999999996</v>
       </c>
       <c r="H64" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -1971,13 +2537,13 @@
         <v>0.49425999999999998</v>
       </c>
       <c r="D65">
-        <v>0.69796999999999998</v>
+        <v>0.55996999999999997</v>
       </c>
       <c r="G65" s="3">
-        <v>0.68796999999999997</v>
+        <v>0.55596999999999996</v>
       </c>
       <c r="H65" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -1985,13 +2551,13 @@
         <v>0.49926999999999999</v>
       </c>
       <c r="D66">
-        <v>0.69996999999999998</v>
+        <v>0.56196999999999997</v>
       </c>
       <c r="G66" s="3">
-        <v>0.68996999999999997</v>
+        <v>0.55796999999999997</v>
       </c>
       <c r="H66" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -1999,13 +2565,13 @@
         <v>0.50224000000000002</v>
       </c>
       <c r="D67">
-        <v>0.70196999999999998</v>
+        <v>0.56396999999999997</v>
       </c>
       <c r="G67" s="3">
-        <v>0.69196999999999997</v>
+        <v>0.55996999999999997</v>
       </c>
       <c r="H67" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2013,10 +2579,10 @@
         <v>0.51202000000000003</v>
       </c>
       <c r="D68">
-        <v>0.70396999999999998</v>
+        <v>0.56596999999999997</v>
       </c>
       <c r="G68" s="3">
-        <v>0.69396999999999998</v>
+        <v>0.56196999999999997</v>
       </c>
       <c r="H68" s="4">
         <v>0</v>
@@ -2027,10 +2593,10 @@
         <v>0.48613000000000001</v>
       </c>
       <c r="D69">
-        <v>0.70596999999999999</v>
+        <v>0.56796999999999997</v>
       </c>
       <c r="G69" s="3">
-        <v>0.69596999999999998</v>
+        <v>0.56396999999999997</v>
       </c>
       <c r="H69" s="4">
         <v>0</v>
@@ -2041,10 +2607,10 @@
         <v>0.48199999999999998</v>
       </c>
       <c r="D70">
-        <v>0.70796999999999999</v>
+        <v>0.56996999999999998</v>
       </c>
       <c r="G70" s="3">
-        <v>0.69796999999999998</v>
+        <v>0.56596999999999997</v>
       </c>
       <c r="H70" s="4">
         <v>0</v>
@@ -2055,10 +2621,10 @@
         <v>0.50714999999999999</v>
       </c>
       <c r="D71">
-        <v>0.70996999999999999</v>
+        <v>0.57196999999999998</v>
       </c>
       <c r="G71" s="3">
-        <v>0.69996999999999998</v>
+        <v>0.56796999999999997</v>
       </c>
       <c r="H71" s="4">
         <v>0</v>
@@ -2069,10 +2635,10 @@
         <v>0.49826999999999999</v>
       </c>
       <c r="D72">
-        <v>0.71196999999999999</v>
+        <v>0.57396999999999998</v>
       </c>
       <c r="G72" s="3">
-        <v>0.70196999999999998</v>
+        <v>0.56996999999999998</v>
       </c>
       <c r="H72" s="4">
         <v>0</v>
@@ -2083,10 +2649,10 @@
         <v>0.49726999999999999</v>
       </c>
       <c r="D73">
-        <v>0.71396999999999999</v>
+        <v>0.57596999999999998</v>
       </c>
       <c r="G73" s="3">
-        <v>0.70396999999999998</v>
+        <v>0.57196999999999998</v>
       </c>
       <c r="H73" s="4">
         <v>0</v>
@@ -2097,10 +2663,10 @@
         <v>0.51973000000000003</v>
       </c>
       <c r="D74">
-        <v>0.71597</v>
+        <v>0.57796999999999998</v>
       </c>
       <c r="G74" s="3">
-        <v>0.70596999999999999</v>
+        <v>0.57396999999999998</v>
       </c>
       <c r="H74" s="4">
         <v>0</v>
@@ -2111,10 +2677,10 @@
         <v>0.46289999999999998</v>
       </c>
       <c r="D75">
-        <v>0.71797</v>
+        <v>0.57996999999999999</v>
       </c>
       <c r="G75" s="3">
-        <v>0.70796999999999999</v>
+        <v>0.57596999999999998</v>
       </c>
       <c r="H75" s="4">
         <v>0</v>
@@ -2124,8 +2690,11 @@
       <c r="A76" s="1">
         <v>0.49926999999999999</v>
       </c>
+      <c r="D76">
+        <v>0.58196999999999999</v>
+      </c>
       <c r="G76" s="3">
-        <v>0.70996999999999999</v>
+        <v>0.57796999999999998</v>
       </c>
       <c r="H76" s="4">
         <v>0</v>
@@ -2135,8 +2704,11 @@
       <c r="A77" s="1">
         <v>0.52163000000000004</v>
       </c>
+      <c r="D77">
+        <v>0.58396999999999999</v>
+      </c>
       <c r="G77" s="3">
-        <v>0.71196999999999999</v>
+        <v>0.57996999999999999</v>
       </c>
       <c r="H77" s="4">
         <v>0</v>
@@ -2146,19 +2718,25 @@
       <c r="A78" s="1">
         <v>0.46505999999999997</v>
       </c>
+      <c r="D78">
+        <v>0.58596999999999999</v>
+      </c>
       <c r="G78" s="3">
-        <v>0.71396999999999999</v>
+        <v>0.58196999999999999</v>
       </c>
       <c r="H78" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>0.47572999999999999</v>
       </c>
+      <c r="D79">
+        <v>0.58796999999999999</v>
+      </c>
       <c r="G79" s="3">
-        <v>0.71597</v>
+        <v>0.58396999999999999</v>
       </c>
       <c r="H79" s="4">
         <v>0</v>
@@ -2168,21 +2746,27 @@
       <c r="A80" s="1">
         <v>0.49926999999999999</v>
       </c>
+      <c r="D80">
+        <v>0.58996999999999999</v>
+      </c>
       <c r="G80" s="3">
-        <v>0.71797</v>
+        <v>0.58596999999999999</v>
       </c>
       <c r="H80" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" thickBot="1">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>0.53288000000000002</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5">
+      <c r="D81">
+        <v>0.59197</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0.58796999999999999</v>
+      </c>
+      <c r="H81" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2190,473 +2774,1256 @@
       <c r="A82" s="1">
         <v>0.50322999999999996</v>
       </c>
+      <c r="D82">
+        <v>0.59397</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0.58996999999999999</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>0.51395999999999997</v>
       </c>
+      <c r="D83">
+        <v>0.59597</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0.59197</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>0.50224000000000002</v>
       </c>
+      <c r="D84">
+        <v>0.59797</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0.59397</v>
+      </c>
+      <c r="H84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>0.50421000000000005</v>
       </c>
+      <c r="D85">
+        <v>0.59997</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0.59597</v>
+      </c>
+      <c r="H85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>0.50617000000000001</v>
       </c>
+      <c r="D86">
+        <v>0.60197000000000001</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0.59797</v>
+      </c>
+      <c r="H86" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>0.52068000000000003</v>
       </c>
+      <c r="D87">
+        <v>0.60397000000000001</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0.59997</v>
+      </c>
+      <c r="H87" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>0.51298999999999995</v>
       </c>
+      <c r="D88">
+        <v>0.60597000000000001</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0.60197000000000001</v>
+      </c>
+      <c r="H88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>0.50322999999999996</v>
       </c>
+      <c r="D89">
+        <v>0.60797000000000001</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0.60397000000000001</v>
+      </c>
+      <c r="H89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>0.49626999999999999</v>
       </c>
+      <c r="D90">
+        <v>0.60997000000000001</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0.60597000000000001</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>0.50714999999999999</v>
       </c>
+      <c r="D91">
+        <v>0.61197000000000001</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0.60797000000000001</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>0.50124999999999997</v>
       </c>
+      <c r="D92">
+        <v>0.61397000000000002</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0.60997000000000001</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>0.49726999999999999</v>
       </c>
+      <c r="D93">
+        <v>0.61597000000000002</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0.61197000000000001</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>0.50322999999999996</v>
       </c>
+      <c r="D94">
+        <v>0.61797000000000002</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0.61397000000000002</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>0.51007000000000002</v>
       </c>
+      <c r="D95">
+        <v>0.61997000000000002</v>
+      </c>
+      <c r="G95" s="3">
+        <v>0.61597000000000002</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>0.48818</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="D96">
+        <v>0.62197000000000002</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0.61797000000000002</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>0.52636000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="D97">
+        <v>0.62397000000000002</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0.61997000000000002</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>0.51685000000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="D98">
+        <v>0.62597000000000003</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0.62197000000000002</v>
+      </c>
+      <c r="H98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>0.50124999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="D99">
+        <v>0.62797000000000003</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0.62397000000000002</v>
+      </c>
+      <c r="H99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>0.52729999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="D100">
+        <v>0.62997000000000003</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0.62597000000000003</v>
+      </c>
+      <c r="H100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>0.51104000000000005</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="D101">
+        <v>0.63197000000000003</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0.62797000000000003</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>0.47466999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="D102">
+        <v>0.63397000000000003</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0.62997000000000003</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>0.49123</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="D103">
+        <v>0.63597000000000004</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0.63197000000000003</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>0.48715000000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="D104">
+        <v>0.63797000000000004</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0.63397000000000003</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="D105">
+        <v>0.63997000000000004</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0.63597000000000004</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>0.49224000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="D106">
+        <v>0.64197000000000004</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0.63797000000000004</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>0.47782999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="D107">
+        <v>0.64397000000000004</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0.63997000000000004</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>0.46936</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="D108">
+        <v>0.64597000000000004</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0.64197000000000004</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>0.49325999999999998</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="D109">
+        <v>0.64797000000000005</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0.64397000000000004</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>0.46505999999999997</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="D110">
+        <v>0.64997000000000005</v>
+      </c>
+      <c r="G110" s="3">
+        <v>0.64597000000000004</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>0.46828999999999998</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="D111">
+        <v>0.65197000000000005</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0.64797000000000005</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>0.46072000000000002</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="D112">
+        <v>0.65397000000000005</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0.64997000000000005</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>0.48407</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="D113">
+        <v>0.65597000000000005</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0.65197000000000005</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>0.46072000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="D114">
+        <v>0.65797000000000005</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0.65397000000000005</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>0.46828999999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="D115">
+        <v>0.65996999999999995</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0.65597000000000005</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>0.46722000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="D116">
+        <v>0.66196999999999995</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0.65797000000000005</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>0.47466999999999998</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="D117">
+        <v>0.66396999999999995</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0.65996999999999995</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>0.46828999999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="D118">
+        <v>0.66596999999999995</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0.66196999999999995</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>0.45633000000000001</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="D119">
+        <v>0.66796999999999995</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0.66396999999999995</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>0.47149999999999997</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="D120">
+        <v>0.66996999999999995</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0.66596999999999995</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>0.44853999999999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="D121">
+        <v>0.67196999999999996</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0.66796999999999995</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>0.48715000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="D122">
+        <v>0.67396999999999996</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0.66996999999999995</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>0.49826999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="D123">
+        <v>0.67596999999999996</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0.67196999999999996</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>0.47361999999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="D124">
+        <v>0.67796999999999996</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0.67396999999999996</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>0.46936</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="D125">
+        <v>0.67996999999999996</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0.67596999999999996</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>0.47677999999999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="D126">
+        <v>0.68196999999999997</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0.67796999999999996</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>0.47043000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="D127">
+        <v>0.68396999999999997</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0.67996999999999996</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>0.49425999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="D128">
+        <v>0.68596999999999997</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0.68196999999999997</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>0.46289999999999998</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="D129">
+        <v>0.68796999999999997</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0.68396999999999997</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>0.46828999999999998</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="D130">
+        <v>0.68996999999999997</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0.68596999999999997</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>0.46181</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="D131">
+        <v>0.69196999999999997</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0.68796999999999997</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>0.46398</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="D132">
+        <v>0.69396999999999998</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0.68996999999999997</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>0.46614</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="D133">
+        <v>0.69596999999999998</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0.69196999999999997</v>
+      </c>
+      <c r="H133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>0.47677999999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="D134">
+        <v>0.69796999999999998</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0.69396999999999998</v>
+      </c>
+      <c r="H134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>0.46398</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="D135">
+        <v>0.69996999999999998</v>
+      </c>
+      <c r="G135" s="3">
+        <v>0.69596999999999998</v>
+      </c>
+      <c r="H135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>0.47572999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="D136">
+        <v>0.70196999999999998</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0.69796999999999998</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>0.45301000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="D137">
+        <v>0.70396999999999998</v>
+      </c>
+      <c r="G137" s="3">
+        <v>0.69996999999999998</v>
+      </c>
+      <c r="H137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>0.46398</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="D138">
+        <v>0.70596999999999999</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0.70196999999999998</v>
+      </c>
+      <c r="H138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>0.44629000000000002</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="D139">
+        <v>0.70796999999999999</v>
+      </c>
+      <c r="G139" s="3">
+        <v>0.70396999999999998</v>
+      </c>
+      <c r="H139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>0.45523000000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="D140">
+        <v>0.70996999999999999</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0.70596999999999999</v>
+      </c>
+      <c r="H140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>0.48199999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="D141">
+        <v>0.71196999999999999</v>
+      </c>
+      <c r="G141" s="3">
+        <v>0.70796999999999999</v>
+      </c>
+      <c r="H141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>0.54471999999999998</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="D142">
+        <v>0.71396999999999999</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0.70996999999999999</v>
+      </c>
+      <c r="H142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>0.52068000000000003</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="D143">
+        <v>0.71597</v>
+      </c>
+      <c r="G143" s="3">
+        <v>0.71196999999999999</v>
+      </c>
+      <c r="H143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>0.54201999999999995</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="D144">
+        <v>0.71797</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0.71396999999999999</v>
+      </c>
+      <c r="H144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>0.51298999999999995</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="D145">
+        <v>0.71997</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0.71597</v>
+      </c>
+      <c r="H145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>0.55359000000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="D146">
+        <v>0.72197</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0.71797</v>
+      </c>
+      <c r="H146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>0.55095000000000005</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="D147">
+        <v>0.72397</v>
+      </c>
+      <c r="G147" s="3">
+        <v>0.71997</v>
+      </c>
+      <c r="H147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>0.53747999999999996</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="D148">
+        <v>0.72597</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0.72197</v>
+      </c>
+      <c r="H148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>0.53839000000000004</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="D149">
+        <v>0.72797000000000001</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0.72397</v>
+      </c>
+      <c r="H149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>0.54201999999999995</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="D150">
+        <v>0.72997000000000001</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0.72597</v>
+      </c>
+      <c r="H150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>0.54918</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="D151">
+        <v>0.73197000000000001</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0.72797000000000001</v>
+      </c>
+      <c r="H151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>0.5393</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="D152">
+        <v>0.73397000000000001</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0.72997000000000001</v>
+      </c>
+      <c r="H152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>0.55535000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="D153">
+        <v>0.73597000000000001</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0.73197000000000001</v>
+      </c>
+      <c r="H153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>0.5474</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="D154">
+        <v>0.73797000000000001</v>
+      </c>
+      <c r="G154" s="3">
+        <v>0.73397000000000001</v>
+      </c>
+      <c r="H154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>0.55969000000000002</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="D155">
+        <v>0.73997000000000002</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0.73597000000000001</v>
+      </c>
+      <c r="H155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>0.54918</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="D156">
+        <v>0.74197000000000002</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0.73797000000000001</v>
+      </c>
+      <c r="H156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>0.54381999999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="D157">
+        <v>0.74397000000000002</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0.73997000000000002</v>
+      </c>
+      <c r="H157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>0.55881999999999998</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="D158">
+        <v>0.74597000000000002</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0.74197000000000002</v>
+      </c>
+      <c r="H158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>0.53380000000000005</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="D159">
+        <v>0.74797000000000002</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0.74397000000000002</v>
+      </c>
+      <c r="H159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>0.52822999999999998</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="D160">
+        <v>0.74997000000000003</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0.74597000000000002</v>
+      </c>
+      <c r="H160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>0.48715000000000003</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="D161">
+        <v>0.75197000000000003</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0.74797000000000002</v>
+      </c>
+      <c r="H161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>0.55708999999999997</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="D162">
+        <v>0.75397000000000003</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0.74997000000000003</v>
+      </c>
+      <c r="H162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>0.52446999999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
+      <c r="D163">
+        <v>0.75597000000000003</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0.75197000000000003</v>
+      </c>
+      <c r="H163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>0.53564000000000001</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
+      <c r="D164">
+        <v>0.75797000000000003</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0.75397000000000003</v>
+      </c>
+      <c r="H164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>0.54201999999999995</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
+      <c r="D165">
+        <v>0.75997000000000003</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0.75597000000000003</v>
+      </c>
+      <c r="H165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>0.54381999999999997</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
+      <c r="D166">
+        <v>0.76197000000000004</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0.75797000000000003</v>
+      </c>
+      <c r="H166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>0.54561999999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
+      <c r="G167" s="3">
+        <v>0.75997000000000003</v>
+      </c>
+      <c r="H167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>0.52446999999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
+      <c r="G168" s="3">
+        <v>0.76197000000000004</v>
+      </c>
+      <c r="H168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" thickBot="1">
       <c r="A169" s="1">
         <v>0.52446999999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
+      <c r="G169" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>0.52258000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:1">
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>0.52068000000000003</v>
       </c>
     </row>
-    <row r="172" spans="1:1">
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>0.50124999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>0.51007000000000002</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>0.51780999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>0.52542</v>
       </c>
     </row>
-    <row r="176" spans="1:1">
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>0.53747999999999996</v>
       </c>
@@ -2787,8 +4154,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G7:G80">
-    <sortCondition ref="G7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:G168">
+    <sortCondition ref="G4"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
